--- a/biology/Histoire de la zoologie et de la botanique/George_Thomas_Moore/George_Thomas_Moore.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/George_Thomas_Moore/George_Thomas_Moore.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">George Thomas Moore est un botaniste américain, né le 23 février 1871 à Indianapolis et mort le 27 novembre 1956.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils de George T. Moore et de Margaret née Marshall. Il obtient son Bachelor of Sciences au Wabash College en 1894, son Bachelor of Arts à Harvard en 1895, puis son Master of Arts en 1896 et, enfin, son doctorat en 1900. Il se marie avec Emma L. Hall le 30 décembre 1896 (celle-ci décède en janvier 1934), union dont il aura deux enfants.
 Il est assistant en cryptogamie à Harvard puis enseignant au Radcliffe College. De 1899 à 1901, il enseigne la botanique au Dartmouth College. Il devient physiologiste et algologiste pour le département des plantes industrielles au ministère de l’Agriculture en 1901. De 1903 à 1905, il dirige le laboratoire de physiologie végétale, puis, de 1909 à 1919, il est responsable de la botanique au Laboratoire de biologie marine (MBL) du Massachusetts. Parallèlement, il enseigne la botanique appliquée et la physiologie végétale à la Shaw School de l’université de Washington. À partir de 1912, il dirige le Jardin botanique du Missouri.
@@ -544,7 +558,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Allen G. Debus (dir.) (1968). World Who’s Who in Science. A Biographical Dictionary of Notable Scientists from Antiquity to the Present. Marquis-Who’s Who (Chicago) : xvi + 1855 p.</t>
         </is>
